--- a/Code/Results/Cases/Case_9_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_48/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018855273875539</v>
+        <v>1.01755080999625</v>
       </c>
       <c r="D2">
-        <v>1.037782997649678</v>
+        <v>1.035832958241552</v>
       </c>
       <c r="E2">
-        <v>1.022583763294052</v>
+        <v>1.021495594384578</v>
       </c>
       <c r="F2">
-        <v>1.039963493637185</v>
+        <v>1.038574735652227</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051029489749027</v>
+        <v>1.050170771819854</v>
       </c>
       <c r="J2">
-        <v>1.04048628981901</v>
+        <v>1.039218958263331</v>
       </c>
       <c r="K2">
-        <v>1.048739902662994</v>
+        <v>1.046814673364454</v>
       </c>
       <c r="L2">
-        <v>1.033737186923145</v>
+        <v>1.032663368821441</v>
       </c>
       <c r="M2">
-        <v>1.050892793979103</v>
+        <v>1.049521600679222</v>
       </c>
       <c r="N2">
-        <v>1.016936586896422</v>
+        <v>1.017300429688394</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04885057560815</v>
+        <v>1.047765379637009</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045533589138598</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044181005355982</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024303184586638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022808350143366</v>
+        <v>1.021290543706443</v>
       </c>
       <c r="D3">
-        <v>1.040514062872178</v>
+        <v>1.038319021498678</v>
       </c>
       <c r="E3">
-        <v>1.025733554808517</v>
+        <v>1.024453903718359</v>
       </c>
       <c r="F3">
-        <v>1.042781773180302</v>
+        <v>1.041211032475603</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052063117532045</v>
+        <v>1.051071406944505</v>
       </c>
       <c r="J3">
-        <v>1.042695974997046</v>
+        <v>1.041217166875447</v>
       </c>
       <c r="K3">
-        <v>1.050653529504607</v>
+        <v>1.048484000599332</v>
       </c>
       <c r="L3">
-        <v>1.036047426423102</v>
+        <v>1.034783168534501</v>
       </c>
       <c r="M3">
-        <v>1.052895022063966</v>
+        <v>1.051342426191794</v>
       </c>
       <c r="N3">
-        <v>1.017714411665163</v>
+        <v>1.017854705360386</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.050435185122715</v>
+        <v>1.049206425211586</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04688402580677</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045358427674701</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024663714263325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025321175817999</v>
+        <v>1.023669494069695</v>
       </c>
       <c r="D4">
-        <v>1.042254367368493</v>
+        <v>1.039904740999345</v>
       </c>
       <c r="E4">
-        <v>1.02774118648883</v>
+        <v>1.026341301857862</v>
       </c>
       <c r="F4">
-        <v>1.044580587327655</v>
+        <v>1.042895232351573</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052712536181309</v>
+        <v>1.051636954759512</v>
       </c>
       <c r="J4">
-        <v>1.044098616199296</v>
+        <v>1.042486517323853</v>
       </c>
       <c r="K4">
-        <v>1.051868224899032</v>
+        <v>1.049544273212347</v>
       </c>
       <c r="L4">
-        <v>1.037515943104663</v>
+        <v>1.036131874679172</v>
       </c>
       <c r="M4">
-        <v>1.054169165519194</v>
+        <v>1.052502111707164</v>
       </c>
       <c r="N4">
-        <v>1.0182078570743</v>
+        <v>1.018206740839163</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.051443569907548</v>
+        <v>1.05012422706421</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.047743790187134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.046109086830603</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024890352490467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02637164271122</v>
+        <v>1.024664228063586</v>
       </c>
       <c r="D5">
-        <v>1.042985020593378</v>
+        <v>1.040570969399886</v>
       </c>
       <c r="E5">
-        <v>1.028582344656001</v>
+        <v>1.02713236710683</v>
       </c>
       <c r="F5">
-        <v>1.045334957664506</v>
+        <v>1.043601862167656</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052984075466828</v>
+        <v>1.051873485370655</v>
       </c>
       <c r="J5">
-        <v>1.044686377186234</v>
+        <v>1.043018665335617</v>
       </c>
       <c r="K5">
-        <v>1.052378617341762</v>
+        <v>1.049990247614365</v>
       </c>
       <c r="L5">
-        <v>1.038131354523336</v>
+        <v>1.036697319716598</v>
       </c>
       <c r="M5">
-        <v>1.054703694358866</v>
+        <v>1.052988920072212</v>
       </c>
       <c r="N5">
-        <v>1.018415207041572</v>
+        <v>1.018354777974028</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.051866607228813</v>
+        <v>1.050509498090817</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.048111766674239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04643222839812</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024985776274036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026552945285469</v>
+        <v>1.024835731495829</v>
       </c>
       <c r="D6">
-        <v>1.043113784356934</v>
+        <v>1.040688543617921</v>
       </c>
       <c r="E6">
-        <v>1.028728339655655</v>
+        <v>1.027269521586595</v>
       </c>
       <c r="F6">
-        <v>1.045466061039507</v>
+        <v>1.043724650182605</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053033164913684</v>
+        <v>1.051916414046905</v>
       </c>
       <c r="J6">
-        <v>1.044790099373782</v>
+        <v>1.043112611882079</v>
       </c>
       <c r="K6">
-        <v>1.05247037422071</v>
+        <v>1.050070816535153</v>
       </c>
       <c r="L6">
-        <v>1.038239443462295</v>
+        <v>1.036796591287491</v>
       </c>
       <c r="M6">
-        <v>1.054797879686934</v>
+        <v>1.053074794051982</v>
       </c>
       <c r="N6">
-        <v>1.018452586947187</v>
+        <v>1.018381484775381</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051941147445781</v>
+        <v>1.050577460658194</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.048185294812235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046498717146072</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025003791053284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025350190283021</v>
+        <v>1.023705608758596</v>
       </c>
       <c r="D7">
-        <v>1.042281517241426</v>
+        <v>1.039936703962468</v>
       </c>
       <c r="E7">
-        <v>1.027766435335809</v>
+        <v>1.026373097159575</v>
       </c>
       <c r="F7">
-        <v>1.044603560755198</v>
+        <v>1.042922330657552</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052726339024003</v>
+        <v>1.051654202421806</v>
       </c>
       <c r="J7">
-        <v>1.044121074891455</v>
+        <v>1.042515888391334</v>
       </c>
       <c r="K7">
-        <v>1.051892239544861</v>
+        <v>1.049573038051346</v>
       </c>
       <c r="L7">
-        <v>1.037538014203066</v>
+        <v>1.036160411938731</v>
       </c>
       <c r="M7">
-        <v>1.054189058976452</v>
+        <v>1.052526078111738</v>
       </c>
       <c r="N7">
-        <v>1.018217945686332</v>
+        <v>1.018242742560006</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.051459314010632</v>
+        <v>1.050143194617404</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047780667746941</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.046151327199736</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024899648550909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020219738473551</v>
+        <v>1.018868915995769</v>
       </c>
       <c r="D8">
-        <v>1.038733456171075</v>
+        <v>1.036719456390346</v>
       </c>
       <c r="E8">
-        <v>1.023672488834706</v>
+        <v>1.022543521570578</v>
       </c>
       <c r="F8">
-        <v>1.040937395063079</v>
+        <v>1.039502893602779</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051395737948945</v>
+        <v>1.05050530986615</v>
       </c>
       <c r="J8">
-        <v>1.041257236628172</v>
+        <v>1.039943578970713</v>
       </c>
       <c r="K8">
-        <v>1.049413124617945</v>
+        <v>1.04742399115028</v>
       </c>
       <c r="L8">
-        <v>1.034541071414636</v>
+        <v>1.033426545305698</v>
       </c>
       <c r="M8">
-        <v>1.051589989204717</v>
+        <v>1.050173093661502</v>
       </c>
       <c r="N8">
-        <v>1.017210882654698</v>
+        <v>1.01758352825746</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.049402352382343</v>
+        <v>1.048280987342434</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.046032289951856</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044636792820785</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024441038070226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.0107940325764</v>
+        <v>1.009967860157045</v>
       </c>
       <c r="D9">
-        <v>1.032239394760994</v>
+        <v>1.030820386558772</v>
       </c>
       <c r="E9">
-        <v>1.016192234472251</v>
+        <v>1.015533836780359</v>
       </c>
       <c r="F9">
-        <v>1.03425855258096</v>
+        <v>1.033267690523081</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048881969522709</v>
+        <v>1.048315534624473</v>
       </c>
       <c r="J9">
-        <v>1.035971300222017</v>
+        <v>1.035173472050789</v>
       </c>
       <c r="K9">
-        <v>1.044830202363251</v>
+        <v>1.043432459976812</v>
       </c>
       <c r="L9">
-        <v>1.029027955139701</v>
+        <v>1.028379817263105</v>
       </c>
       <c r="M9">
-        <v>1.046819228203536</v>
+        <v>1.045843134106062</v>
       </c>
       <c r="N9">
-        <v>1.015346263678671</v>
+        <v>1.016268304605068</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.045626651188351</v>
+        <v>1.044854143192234</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.042788764222889</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041811136560601</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023563976020871</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004327698488797</v>
+        <v>1.003906296128812</v>
       </c>
       <c r="D10">
-        <v>1.02784051532996</v>
+        <v>1.026860945782197</v>
       </c>
       <c r="E10">
-        <v>1.011104644396624</v>
+        <v>1.010809173009814</v>
       </c>
       <c r="F10">
-        <v>1.0297999933227</v>
+        <v>1.029140597048807</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047149813405345</v>
+        <v>1.046826219291334</v>
       </c>
       <c r="J10">
-        <v>1.032370658602289</v>
+        <v>1.031965782322475</v>
       </c>
       <c r="K10">
-        <v>1.041724659090219</v>
+        <v>1.040761582248212</v>
       </c>
       <c r="L10">
-        <v>1.025276254437609</v>
+        <v>1.024985969077331</v>
       </c>
       <c r="M10">
-        <v>1.043651267313806</v>
+        <v>1.043002914240936</v>
       </c>
       <c r="N10">
-        <v>1.014086218137785</v>
+        <v>1.015504420742944</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.043170583094922</v>
+        <v>1.04265748846629</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.040609664663617</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03994105178811</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022979023152085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002110385852543</v>
+        <v>1.00183004328088</v>
       </c>
       <c r="D11">
-        <v>1.026567675820664</v>
+        <v>1.025730017415827</v>
       </c>
       <c r="E11">
-        <v>1.009462284577665</v>
+        <v>1.009288865751311</v>
       </c>
       <c r="F11">
-        <v>1.028919524168345</v>
+        <v>1.028369766909722</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046780023171219</v>
+        <v>1.046530325189466</v>
       </c>
       <c r="J11">
-        <v>1.031395633085707</v>
+        <v>1.031126887990644</v>
       </c>
       <c r="K11">
-        <v>1.041005373964567</v>
+        <v>1.04018248599509</v>
       </c>
       <c r="L11">
-        <v>1.024207935321404</v>
+        <v>1.024037708241711</v>
       </c>
       <c r="M11">
-        <v>1.043315918697617</v>
+        <v>1.042775794459723</v>
       </c>
       <c r="N11">
-        <v>1.013836336241275</v>
+        <v>1.0155660815515</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.043338968503724</v>
+        <v>1.042911736862482</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.040133722413797</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039567441710223</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022929136119536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.00151069254076</v>
+        <v>1.001247551296778</v>
       </c>
       <c r="D12">
-        <v>1.026326063917922</v>
+        <v>1.025505685921631</v>
       </c>
       <c r="E12">
-        <v>1.009065399465533</v>
+        <v>1.008902589105055</v>
       </c>
       <c r="F12">
-        <v>1.028976236478039</v>
+        <v>1.0284402201641</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046785461994827</v>
+        <v>1.046538843791636</v>
       </c>
       <c r="J12">
-        <v>1.031251254470922</v>
+        <v>1.030999206197064</v>
       </c>
       <c r="K12">
-        <v>1.040965700171666</v>
+        <v>1.040160024828028</v>
       </c>
       <c r="L12">
-        <v>1.024020957490916</v>
+        <v>1.023861194231329</v>
       </c>
       <c r="M12">
-        <v>1.043568584765435</v>
+        <v>1.043042107259432</v>
       </c>
       <c r="N12">
-        <v>1.013858108150803</v>
+        <v>1.015680663971045</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043863500895837</v>
+        <v>1.043447203189369</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.040105672122052</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039551561450049</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022979436078595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002136589089863</v>
+        <v>1.001781017699707</v>
       </c>
       <c r="D13">
-        <v>1.026885401222976</v>
+        <v>1.025975645635186</v>
       </c>
       <c r="E13">
-        <v>1.009617334809246</v>
+        <v>1.009366092054605</v>
       </c>
       <c r="F13">
-        <v>1.029786716584137</v>
+        <v>1.02918188670325</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047097481187294</v>
+        <v>1.046791841928073</v>
       </c>
       <c r="J13">
-        <v>1.03175850772531</v>
+        <v>1.031417846386663</v>
       </c>
       <c r="K13">
-        <v>1.041472662609028</v>
+        <v>1.040579135947011</v>
       </c>
       <c r="L13">
-        <v>1.024519149384773</v>
+        <v>1.024272586888998</v>
       </c>
       <c r="M13">
-        <v>1.044322470487246</v>
+        <v>1.043728347159687</v>
       </c>
       <c r="N13">
-        <v>1.014100857606851</v>
+        <v>1.015813589349668</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.044734918818946</v>
+        <v>1.044265249003396</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.040461631592526</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039845159909041</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02311627839274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003129506073531</v>
+        <v>1.002660975536099</v>
       </c>
       <c r="D14">
-        <v>1.02763981977458</v>
+        <v>1.026620477594428</v>
       </c>
       <c r="E14">
-        <v>1.010433139132764</v>
+        <v>1.010076741801986</v>
       </c>
       <c r="F14">
-        <v>1.03069430044697</v>
+        <v>1.030004978747234</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047454326566004</v>
+        <v>1.047080382964581</v>
       </c>
       <c r="J14">
-        <v>1.032408139870805</v>
+        <v>1.031958968776039</v>
       </c>
       <c r="K14">
-        <v>1.042074969411902</v>
+        <v>1.041073580162463</v>
       </c>
       <c r="L14">
-        <v>1.02517766223477</v>
+        <v>1.024827818041427</v>
       </c>
       <c r="M14">
-        <v>1.045075929108742</v>
+        <v>1.044398649861019</v>
       </c>
       <c r="N14">
-        <v>1.014370745787483</v>
+        <v>1.015916693536951</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045503079486788</v>
+        <v>1.044967744486122</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.040888890693134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040196289621331</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023251874922266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003646015212968</v>
+        <v>1.003126290692815</v>
       </c>
       <c r="D15">
-        <v>1.028008977371629</v>
+        <v>1.026939667033835</v>
       </c>
       <c r="E15">
-        <v>1.010846227252587</v>
+        <v>1.010442985165709</v>
       </c>
       <c r="F15">
-        <v>1.031097787500625</v>
+        <v>1.030369942348592</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047614327129709</v>
+        <v>1.047210386476042</v>
       </c>
       <c r="J15">
-        <v>1.032717722425638</v>
+        <v>1.032219282723311</v>
       </c>
       <c r="K15">
-        <v>1.042352228772612</v>
+        <v>1.041301606924655</v>
       </c>
       <c r="L15">
-        <v>1.025495650107511</v>
+        <v>1.025099764363971</v>
       </c>
       <c r="M15">
-        <v>1.045387337003519</v>
+        <v>1.044672108606107</v>
       </c>
       <c r="N15">
-        <v>1.014488725281214</v>
+        <v>1.015952009303548</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.045786600775279</v>
+        <v>1.045221284787181</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.041090745725443</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040363904426701</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023307694454311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006264164201249</v>
+        <v>1.00552881929984</v>
       </c>
       <c r="D16">
-        <v>1.029769992337306</v>
+        <v>1.028485446572777</v>
       </c>
       <c r="E16">
-        <v>1.012888705164966</v>
+        <v>1.012292409692201</v>
       </c>
       <c r="F16">
-        <v>1.032863145142073</v>
+        <v>1.03196997444192</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048302553967925</v>
+        <v>1.047776207090193</v>
       </c>
       <c r="J16">
-        <v>1.034155436512123</v>
+        <v>1.03344869377943</v>
       </c>
       <c r="K16">
-        <v>1.043586605695158</v>
+        <v>1.04232352848784</v>
       </c>
       <c r="L16">
-        <v>1.026993079136977</v>
+        <v>1.026407175439672</v>
       </c>
       <c r="M16">
-        <v>1.046628344816249</v>
+        <v>1.045749979446753</v>
       </c>
       <c r="N16">
-        <v>1.014979346231244</v>
+        <v>1.016072578438355</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.046728944084217</v>
+        <v>1.046034665015334</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.04196662132643</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041089866124739</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023521390680833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007755273148776</v>
+        <v>1.006923980630241</v>
       </c>
       <c r="D17">
-        <v>1.030727978103684</v>
+        <v>1.029343242302177</v>
       </c>
       <c r="E17">
-        <v>1.014032067255652</v>
+        <v>1.013351832133859</v>
       </c>
       <c r="F17">
-        <v>1.033738574570034</v>
+        <v>1.032769070770559</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048642242625528</v>
+        <v>1.048062546230449</v>
       </c>
       <c r="J17">
-        <v>1.034918655573738</v>
+        <v>1.034118656382023</v>
       </c>
       <c r="K17">
-        <v>1.04421786335452</v>
+        <v>1.042855622200759</v>
       </c>
       <c r="L17">
-        <v>1.027798456814584</v>
+        <v>1.027129736502109</v>
       </c>
       <c r="M17">
-        <v>1.047179820325148</v>
+        <v>1.046225940196616</v>
       </c>
       <c r="N17">
-        <v>1.015214509554056</v>
+        <v>1.016141062200493</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.047036408569574</v>
+        <v>1.046282366430322</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042415503355371</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041468883707224</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023615873885948</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008395187390932</v>
+        <v>1.00755147620006</v>
       </c>
       <c r="D18">
-        <v>1.031051523055688</v>
+        <v>1.029649297170385</v>
       </c>
       <c r="E18">
-        <v>1.014484941138527</v>
+        <v>1.013797206688112</v>
       </c>
       <c r="F18">
-        <v>1.033872198908438</v>
+        <v>1.032889726313582</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048695880774122</v>
+        <v>1.048112386054823</v>
       </c>
       <c r="J18">
-        <v>1.035144743831105</v>
+        <v>1.034332202383793</v>
       </c>
       <c r="K18">
-        <v>1.044354960549804</v>
+        <v>1.042975145148144</v>
       </c>
       <c r="L18">
-        <v>1.02805824357118</v>
+        <v>1.027381957715691</v>
       </c>
       <c r="M18">
-        <v>1.047130791966584</v>
+        <v>1.046163903573559</v>
       </c>
       <c r="N18">
-        <v>1.015238802176702</v>
+        <v>1.01612271095375</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.046761203422464</v>
+        <v>1.045996720442358</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042500893344546</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041540712113813</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023602898522487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008284233118182</v>
+        <v>1.007493045794444</v>
       </c>
       <c r="D19">
-        <v>1.030822847198154</v>
+        <v>1.029469960122987</v>
       </c>
       <c r="E19">
-        <v>1.014332046546739</v>
+        <v>1.013695942400443</v>
       </c>
       <c r="F19">
-        <v>1.033343087442537</v>
+        <v>1.032398383553769</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048507341345128</v>
+        <v>1.047959067634057</v>
       </c>
       <c r="J19">
-        <v>1.034905064286796</v>
+        <v>1.034142942587036</v>
       </c>
       <c r="K19">
-        <v>1.044068125692895</v>
+        <v>1.042736756402043</v>
       </c>
       <c r="L19">
-        <v>1.027844650459301</v>
+        <v>1.027219082203995</v>
       </c>
       <c r="M19">
-        <v>1.046548473634604</v>
+        <v>1.045618694025619</v>
       </c>
       <c r="N19">
-        <v>1.01508730398072</v>
+        <v>1.016014997889396</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.045977146935611</v>
+        <v>1.04524176689914</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042304438925338</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041379137017116</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023500127076226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006046133359277</v>
+        <v>1.005487972305152</v>
       </c>
       <c r="D20">
-        <v>1.029026651700564</v>
+        <v>1.027908752824811</v>
       </c>
       <c r="E20">
-        <v>1.012460975029193</v>
+        <v>1.012041534840658</v>
       </c>
       <c r="F20">
-        <v>1.030991624203407</v>
+        <v>1.030226080398148</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047630478672417</v>
+        <v>1.047226664810566</v>
       </c>
       <c r="J20">
-        <v>1.033345959929573</v>
+        <v>1.032808968773027</v>
       </c>
       <c r="K20">
-        <v>1.042577608002993</v>
+        <v>1.04147799203186</v>
       </c>
       <c r="L20">
-        <v>1.026288195818961</v>
+        <v>1.025875902217585</v>
       </c>
       <c r="M20">
-        <v>1.044510567395055</v>
+        <v>1.043757477088098</v>
       </c>
       <c r="N20">
-        <v>1.014434659224762</v>
+        <v>1.01564087200158</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.043840134997082</v>
+        <v>1.043244146216793</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041254498327322</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.040493446705139</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023140140635114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.001064633333956</v>
+        <v>1.000962692079286</v>
       </c>
       <c r="D21">
-        <v>1.025601057465127</v>
+        <v>1.024932519365695</v>
       </c>
       <c r="E21">
-        <v>1.008535381721511</v>
+        <v>1.008531548761674</v>
       </c>
       <c r="F21">
-        <v>1.027447051020994</v>
+        <v>1.027028560307697</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04623731233488</v>
+        <v>1.046098971485411</v>
       </c>
       <c r="J21">
-        <v>1.03051791000539</v>
+        <v>1.030420218601899</v>
       </c>
       <c r="K21">
-        <v>1.040113117362388</v>
+        <v>1.039456447874729</v>
       </c>
       <c r="L21">
-        <v>1.023356833112703</v>
+        <v>1.023353071175985</v>
       </c>
       <c r="M21">
-        <v>1.041926442848233</v>
+        <v>1.041515344706804</v>
       </c>
       <c r="N21">
-        <v>1.013427481359458</v>
+        <v>1.01540043029853</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.041754356660298</v>
+        <v>1.041429000536467</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.039515247045645</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03906770363259</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022694157747234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9978913193482258</v>
+        <v>0.9980792981961651</v>
       </c>
       <c r="D22">
-        <v>1.02343215057399</v>
+        <v>1.023049056410791</v>
       </c>
       <c r="E22">
-        <v>1.006045234771158</v>
+        <v>1.006305885459498</v>
       </c>
       <c r="F22">
-        <v>1.025237191578077</v>
+        <v>1.025039402579477</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045349692855589</v>
+        <v>1.045380310492113</v>
       </c>
       <c r="J22">
-        <v>1.028724344232306</v>
+        <v>1.028904024771308</v>
       </c>
       <c r="K22">
-        <v>1.038553278257426</v>
+        <v>1.038177330108244</v>
       </c>
       <c r="L22">
-        <v>1.021497878154008</v>
+        <v>1.021753448092999</v>
       </c>
       <c r="M22">
-        <v>1.040324742803803</v>
+        <v>1.040130625451785</v>
       </c>
       <c r="N22">
-        <v>1.012790876845621</v>
+        <v>1.015243540351768</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.040486719555656</v>
+        <v>1.040333088667519</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038398966922795</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.038148608012977</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022412394282111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9995646263945386</v>
+        <v>0.9995845173637027</v>
       </c>
       <c r="D23">
-        <v>1.02456880576731</v>
+        <v>1.024023365355001</v>
       </c>
       <c r="E23">
-        <v>1.007355172137262</v>
+        <v>1.007462009318669</v>
       </c>
       <c r="F23">
-        <v>1.026399467075902</v>
+        <v>1.026075536517862</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045812536602685</v>
+        <v>1.045745853370509</v>
       </c>
       <c r="J23">
-        <v>1.029664255454066</v>
+        <v>1.029683294360104</v>
       </c>
       <c r="K23">
-        <v>1.039366853678955</v>
+        <v>1.038831326650941</v>
       </c>
       <c r="L23">
-        <v>1.022472847308171</v>
+        <v>1.022577656663662</v>
       </c>
       <c r="M23">
-        <v>1.041164342854628</v>
+        <v>1.040846270807161</v>
       </c>
       <c r="N23">
-        <v>1.013122049938918</v>
+        <v>1.015277320973571</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.041151206408522</v>
+        <v>1.040899473892356</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038964614246682</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038600484495005</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022552508458146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006043285359799</v>
+        <v>1.00549163753731</v>
       </c>
       <c r="D24">
-        <v>1.028993047685681</v>
+        <v>1.027880883457172</v>
       </c>
       <c r="E24">
-        <v>1.012446529643312</v>
+        <v>1.012033654245334</v>
       </c>
       <c r="F24">
-        <v>1.030923406007094</v>
+        <v>1.030162355191862</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047598998510525</v>
+        <v>1.047199701937961</v>
       </c>
       <c r="J24">
-        <v>1.033310672296508</v>
+        <v>1.032779917974601</v>
       </c>
       <c r="K24">
-        <v>1.042529449973079</v>
+        <v>1.041435452996184</v>
       </c>
       <c r="L24">
-        <v>1.026258539883993</v>
+        <v>1.025852690381429</v>
       </c>
       <c r="M24">
-        <v>1.044428395325657</v>
+        <v>1.043679711130134</v>
       </c>
       <c r="N24">
-        <v>1.014410541723147</v>
+        <v>1.015620997473993</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043734478156191</v>
+        <v>1.04314194721569</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.041193240115969</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040433488538502</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023120821004547</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013300660771988</v>
+        <v>1.012320570878958</v>
       </c>
       <c r="D25">
-        <v>1.033972934735075</v>
+        <v>1.032385374215983</v>
       </c>
       <c r="E25">
-        <v>1.01817967104859</v>
+        <v>1.017382760415229</v>
       </c>
       <c r="F25">
-        <v>1.036030763984469</v>
+        <v>1.034913134779679</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049567241754652</v>
+        <v>1.048907228087399</v>
       </c>
       <c r="J25">
-        <v>1.037388548465398</v>
+        <v>1.036440295688468</v>
       </c>
       <c r="K25">
-        <v>1.046065800564608</v>
+        <v>1.044500921660268</v>
       </c>
       <c r="L25">
-        <v>1.030502176988272</v>
+        <v>1.029717093922954</v>
       </c>
       <c r="M25">
-        <v>1.048094360254352</v>
+        <v>1.046992609393784</v>
       </c>
       <c r="N25">
-        <v>1.015850266677616</v>
+        <v>1.01658932454557</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046635824907659</v>
+        <v>1.045763869795823</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043690741903829</v>
+        <v>1.042597745361173</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023803214571374</v>
       </c>
     </row>
   </sheetData>
